--- a/Pincode.xlsx
+++ b/Pincode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam Bhongade\Documents\Coursera\Coursera_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41CDAFC-337A-4F86-A9B9-902698307541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB0EDC3-2211-4382-998B-F9541664A05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7242,7 +7242,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -7272,6 +7272,41 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7286,16 +7321,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD5A92F3-0EDB-46EF-9BB3-1B0CCFA86F75}" name="Table1" displayName="Table1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E1048576" xr:uid="{C1E8D092-67E5-4F45-8427-50A77A07AF89}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{84D83CA9-FDED-4A0F-9904-BA1918F3E622}" name="Table1" displayName="Table1" ref="A1:E1914" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E1914" xr:uid="{10F40F88-18B5-4CA4-8A11-679FE28510B0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{117616C2-5F72-4597-97F9-45F217DB242C}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{2950A246-AA06-4529-8879-04743F33F4F0}" name="Area"/>
-    <tableColumn id="3" xr3:uid="{9316D839-603E-4528-9E75-B7DBCEFD25AC}" name="Pincode"/>
-    <tableColumn id="4" xr3:uid="{B78052F2-357B-466E-913F-BE80BA73F4B3}" name="State"/>
-    <tableColumn id="5" xr3:uid="{7032568A-A237-456E-B2B2-D85118871369}" name="District"/>
+    <tableColumn id="1" xr3:uid="{DD74038D-ACC8-4499-9BA9-79DCF6E73D97}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{74DD301C-C7D6-40CE-8404-76B89FECDDD2}" name="Area"/>
+    <tableColumn id="3" xr3:uid="{7E1B0EC2-A70A-4E57-8C74-ADF1CEA94FAF}" name="Pincode"/>
+    <tableColumn id="4" xr3:uid="{9B498A1E-5189-47A8-8DFB-3467580469B8}" name="State"/>
+    <tableColumn id="5" xr3:uid="{6F63A637-6C1D-414D-A03A-C29E94DAB928}" name="District"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7622,13 +7657,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1897" workbookViewId="0">
-      <selection activeCell="E1897" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1905" workbookViewId="0">
+      <selection activeCell="B1657" sqref="B1657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
